--- a/Örnek 8 - İşlem (İleri Düzey).xlsx
+++ b/Örnek 8 - İşlem (İleri Düzey).xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kagan\Desktop\OneDrive_2018-12-18\Excel Uygulama\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mamis\Desktop\Excel - MAH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAF960B9-8019-4467-A85E-69B182F268B5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A046AB-D5D7-47C8-91C2-018FAA7CBE8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9480"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="www.tugrulaktas.com" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="114210"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
   <si>
     <t>Personel Bilgi Formu</t>
   </si>
@@ -127,12 +130,18 @@
   </si>
   <si>
     <t>Bölüm:</t>
+  </si>
+  <si>
+    <t>Muhammed Ali Harmancı</t>
+  </si>
+  <si>
+    <t>Yönetim Bilişim Sistemleri</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -280,7 +289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -295,6 +304,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -595,35 +605,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16:N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.65" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.125" style="1"/>
+    <col min="3" max="3" width="19.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.125" style="1"/>
+    <col min="7" max="7" width="10.375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="9" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:14" ht="16.3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="12"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="13"/>
       <c r="G1" s="4" t="s">
         <v>23</v>
       </c>
@@ -762,8 +772,22 @@
       <c r="D8" s="3">
         <v>38149</v>
       </c>
+      <c r="E8" s="1">
+        <f>YEAR(I1)-YEAR(D8)</f>
+        <v>4</v>
+      </c>
       <c r="F8" s="1">
         <v>950</v>
+      </c>
+      <c r="G8" s="1">
+        <f>PRODUCT(F8*0.25)</f>
+        <v>237.5</v>
+      </c>
+      <c r="H8" s="1">
+        <v>10</v>
+      </c>
+      <c r="I8" s="10">
+        <v>1111.5</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -779,8 +803,22 @@
       <c r="D9" s="3">
         <v>38841</v>
       </c>
+      <c r="E9" s="1">
+        <f>YEAR(I1)-YEAR(D9)</f>
+        <v>2</v>
+      </c>
       <c r="F9" s="1">
         <v>850</v>
+      </c>
+      <c r="G9" s="1">
+        <f>PRODUCT(F9*0.15)</f>
+        <v>127.5</v>
+      </c>
+      <c r="H9" s="1">
+        <v>7</v>
+      </c>
+      <c r="I9" s="1">
+        <v>877.5</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -796,8 +834,21 @@
       <c r="D10" s="3">
         <v>38504</v>
       </c>
+      <c r="E10" s="1">
+        <v>3</v>
+      </c>
       <c r="F10" s="1">
         <v>950</v>
+      </c>
+      <c r="G10" s="1">
+        <f>PRODUCT(950*0.25)</f>
+        <v>237.5</v>
+      </c>
+      <c r="H10" s="1">
+        <v>7</v>
+      </c>
+      <c r="I10" s="10">
+        <v>1111.5</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -813,8 +864,21 @@
       <c r="D11" s="3">
         <v>38333</v>
       </c>
+      <c r="E11" s="1">
+        <v>4</v>
+      </c>
       <c r="F11" s="1">
         <v>1150</v>
+      </c>
+      <c r="G11" s="1">
+        <f>PRODUCT(1150*0.25)</f>
+        <v>287.5</v>
+      </c>
+      <c r="H11" s="1">
+        <v>7</v>
+      </c>
+      <c r="I11" s="10">
+        <v>1299.5</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -830,11 +894,24 @@
       <c r="D12" s="3">
         <v>37293</v>
       </c>
+      <c r="E12" s="1">
+        <v>6</v>
+      </c>
       <c r="F12" s="1">
         <v>1200</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" ht="3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G12" s="1">
+        <f>PRODUCT(F12*0.4)</f>
+        <v>480</v>
+      </c>
+      <c r="H12" s="1">
+        <v>15</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="3.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -852,115 +929,121 @@
       <c r="K14" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
+      <c r="L14" s="17">
+        <v>20215070055</v>
+      </c>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
       <c r="K15" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
+      <c r="L15" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
       <c r="K16" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
+      <c r="L16" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-    </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+    </row>
+    <row r="19" spans="1:9" ht="15.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
@@ -987,7 +1070,7 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>